--- a/Asignacion octubre 2023.xlsx
+++ b/Asignacion octubre 2023.xlsx
@@ -532,7 +532,7 @@
       <c r="AB1" t="inlineStr"/>
       <c r="AC1" t="inlineStr"/>
       <c r="AD1" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
